--- a/data/trans_dic/P1001-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1001-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.06845910238972219</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.07660073886475366</v>
+        <v>0.07660073886475367</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.05301686193447151</v>
@@ -697,7 +697,7 @@
         <v>0.05705673075864661</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06370987355596296</v>
+        <v>0.06370987355596293</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02588677354933255</v>
+        <v>0.02739384503799939</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02690575403279728</v>
+        <v>0.02573824558251665</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02933029563416285</v>
+        <v>0.02907698528539017</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03328803527187043</v>
+        <v>0.03578297563981614</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04237177261138335</v>
+        <v>0.04312904705014257</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04593618939031869</v>
+        <v>0.04622084961438053</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0434779401819456</v>
+        <v>0.04552484499885275</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05559164418019723</v>
+        <v>0.05680709004008565</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03713303328816155</v>
+        <v>0.03939510796737081</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0401784131330082</v>
+        <v>0.03946117983571577</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04243910096728511</v>
+        <v>0.04239440548987035</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04971729963403357</v>
+        <v>0.05104171607051247</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06483020390667717</v>
+        <v>0.0669665700935364</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0680107745201812</v>
+        <v>0.06745160455081831</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07304342140752196</v>
+        <v>0.07216931006931704</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07695548642142543</v>
+        <v>0.07738364986770435</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09960833697463362</v>
+        <v>0.1000758579805607</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1081084399385478</v>
+        <v>0.1087281489845277</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09842208043555618</v>
+        <v>0.0992906707924346</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1019195980129988</v>
+        <v>0.1014734133707592</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06976495005759294</v>
+        <v>0.06972726838985774</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.07601147182939451</v>
+        <v>0.07534192380324489</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07716840901607776</v>
+        <v>0.0772890663218118</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08025007409984014</v>
+        <v>0.08078862720469801</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.05729367652231267</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.05983894812415949</v>
+        <v>0.05983894812415947</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02536045825732398</v>
+        <v>0.02472690365674791</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03996373600209493</v>
+        <v>0.0401806013994911</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03174723536309573</v>
+        <v>0.0320546823306749</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01544519604840513</v>
+        <v>0.01579772244557471</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0597153764008196</v>
+        <v>0.05949856809550684</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05803069888203136</v>
+        <v>0.05698032420691605</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03998244271870094</v>
+        <v>0.03944427881223433</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07336122131859273</v>
+        <v>0.07191402580604742</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04684478553900915</v>
+        <v>0.04694631790316444</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05541976790779884</v>
+        <v>0.05481240559114185</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03994905985362534</v>
+        <v>0.0418717059168668</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04632595852946701</v>
+        <v>0.04760530566760168</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07297075905624723</v>
+        <v>0.07323273255257447</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09309511845099457</v>
+        <v>0.09493004434453732</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07943714402010767</v>
+        <v>0.08116197208892591</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04930944414430762</v>
+        <v>0.04768042724988406</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1164939698771747</v>
+        <v>0.1166094535900136</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1225200328507481</v>
+        <v>0.1271752777862094</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09863093864008267</v>
+        <v>0.09273317872388161</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1247043627656958</v>
+        <v>0.1248567887479956</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08355743737241965</v>
+        <v>0.08332909095383512</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09780138400693711</v>
+        <v>0.09651188047098094</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07660801039513419</v>
+        <v>0.07811076387560061</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07605350609427902</v>
+        <v>0.07785591615388998</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.06900469308943243</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07587129278751105</v>
+        <v>0.07587129278751104</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1109840100017575</v>
@@ -969,7 +969,7 @@
         <v>0.08564409000207708</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.08488648041945181</v>
+        <v>0.08488648041945179</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04403258338863403</v>
+        <v>0.04521379549111899</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06381933816220763</v>
+        <v>0.06353393422177053</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04911319733824869</v>
+        <v>0.04753280911339743</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05306223416633764</v>
+        <v>0.05255875050477449</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06390004479747358</v>
+        <v>0.0666406415720653</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1343146330251967</v>
+        <v>0.1340988000510447</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08549203797652075</v>
+        <v>0.08728420055440357</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07342831496782695</v>
+        <v>0.07488315942628439</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05597618546390533</v>
+        <v>0.05561761796873868</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09247220929112093</v>
+        <v>0.09187968468824345</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06597982742246659</v>
+        <v>0.06567280182690734</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06647645282864886</v>
+        <v>0.06687353895814939</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08391966910185331</v>
+        <v>0.0838181670906613</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1129187185091319</v>
+        <v>0.1118965074532019</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09528052495892889</v>
+        <v>0.09661092155616692</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1043330464668928</v>
+        <v>0.1034308958537739</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1669214075890545</v>
+        <v>0.1722536868873351</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2316199329110487</v>
+        <v>0.2303221960832619</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2066829444080704</v>
+        <v>0.2074955613735995</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.148061109981677</v>
+        <v>0.1530101629388036</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09520275702042048</v>
+        <v>0.09485850496377073</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1370129633374282</v>
+        <v>0.1371229152698518</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1085928606720878</v>
+        <v>0.1100776117705332</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1110080882424295</v>
+        <v>0.108791358980557</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.05843243815177784</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06516920940187203</v>
+        <v>0.06516920940187204</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.09696593781850028</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06289788479596614</v>
+        <v>0.06212148721569791</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07160171951639607</v>
+        <v>0.07372107052041187</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04702082345816921</v>
+        <v>0.04514794730340609</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05204563011503924</v>
+        <v>0.05195584171537192</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07763517334800574</v>
+        <v>0.07544948212305655</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1017149942631084</v>
+        <v>0.1018967576926169</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09445041849802152</v>
+        <v>0.0947440457715332</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07082593375858899</v>
+        <v>0.0712969793278266</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07226849119725713</v>
+        <v>0.07265012334734923</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09008013522685157</v>
+        <v>0.08978319269984333</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07069350115267826</v>
+        <v>0.07117865316094697</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06408796209761496</v>
+        <v>0.06370720203655302</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09219871518005221</v>
+        <v>0.09309426057362467</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1070660569731603</v>
+        <v>0.107928325194932</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07283045735053277</v>
+        <v>0.07343079245161102</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08180633151886785</v>
+        <v>0.08129326580221435</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1184334249297821</v>
+        <v>0.1199694588545172</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1511178508387431</v>
+        <v>0.1515613903517479</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.140771603879119</v>
+        <v>0.1430027081953977</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1037447992230714</v>
+        <v>0.1041757605348786</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09797362070456235</v>
+        <v>0.09776338303349497</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.117533641755103</v>
+        <v>0.1171875762213479</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09743668687667757</v>
+        <v>0.09697501802448229</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0852254148513099</v>
+        <v>0.08529323585000842</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.08413578578630601</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.07430816992373758</v>
+        <v>0.07430816992373757</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.09811016360200163</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03884561767474379</v>
+        <v>0.04211250864251505</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03760346084488643</v>
+        <v>0.03964767270704346</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06363566803546535</v>
+        <v>0.0637128083578008</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05547890279212771</v>
+        <v>0.05555245253351909</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07457158050879964</v>
+        <v>0.07512651754108687</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1700817272343804</v>
+        <v>0.1721673546321795</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1381350313735975</v>
+        <v>0.1405749184371227</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1272373733982834</v>
+        <v>0.127136935162097</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06604854309311207</v>
+        <v>0.06672671092559401</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1219914753934219</v>
+        <v>0.1232271963363038</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1118550296522905</v>
+        <v>0.1107913748086017</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1027613415259274</v>
+        <v>0.1031201996804276</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09673781586774538</v>
+        <v>0.09679746705576479</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08127504478453687</v>
+        <v>0.07828721676408948</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1105352763717592</v>
+        <v>0.1082825376533545</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09836015896808256</v>
+        <v>0.09663586813887096</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1272930366462876</v>
+        <v>0.1262310824252039</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2296195186273887</v>
+        <v>0.2306760512449557</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1966493567365821</v>
+        <v>0.1929953500737395</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.167511906024625</v>
+        <v>0.1682048217805232</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1049234622167615</v>
+        <v>0.1045257690173492</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1621804687039074</v>
+        <v>0.162890082318369</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1492974985635471</v>
+        <v>0.1500801081402259</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1341048056111712</v>
+        <v>0.1324741143963395</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.1108894565719788</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.1262781047866497</v>
+        <v>0.1262781047866496</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01912274030811448</v>
+        <v>0.02195338481101724</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01859935292027664</v>
+        <v>0.01816243787219719</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01914823242115243</v>
+        <v>0.01918590829433036</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02052695087546677</v>
+        <v>0.02027532012517796</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0817368627183932</v>
+        <v>0.08105369868089358</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.135139287220519</v>
+        <v>0.1349304695442093</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1096424033558118</v>
+        <v>0.1091650490475216</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1273421293248622</v>
+        <v>0.1288824407968975</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.07190501985918658</v>
+        <v>0.07173096130924166</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1136096497991674</v>
+        <v>0.1150473015647925</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.0934848736068107</v>
+        <v>0.09353432388289024</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1068788693420007</v>
+        <v>0.1095782580760553</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0665507579369438</v>
+        <v>0.06569985890065025</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0692892578018285</v>
+        <v>0.07146967758019523</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06458019743650993</v>
+        <v>0.06875338853379052</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.09969788562739453</v>
+        <v>0.09752866593753116</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1143659599518623</v>
+        <v>0.1149309361689684</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1789320447231813</v>
+        <v>0.1802014880048384</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1535860363048187</v>
+        <v>0.1524021718575731</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.172388719462293</v>
+        <v>0.1714722798397089</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1011019207076799</v>
+        <v>0.1014860374681068</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.152606183861535</v>
+        <v>0.1517970904764628</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1314372007940776</v>
+        <v>0.1300407735398268</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1458835373064074</v>
+        <v>0.1478652924316872</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.1223975444023754</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.1157965829839581</v>
+        <v>0.115796582983958</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.07752947650715024</v>
@@ -1513,7 +1513,7 @@
         <v>0.09226606631222015</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.0883763519696634</v>
+        <v>0.08837635196966341</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05244156595911703</v>
+        <v>0.05245289545529467</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06131133733333113</v>
+        <v>0.06125685962407446</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05322844127551309</v>
+        <v>0.05293207851570944</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05214262949536115</v>
+        <v>0.05206669002141289</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.08410780090400743</v>
+        <v>0.08425900680024692</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.134348636243621</v>
+        <v>0.1348633748039292</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1109238135836711</v>
+        <v>0.1113726615027805</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1079257375249651</v>
+        <v>0.1070241582279467</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07149329982391997</v>
+        <v>0.07073386650366041</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1007139432163592</v>
+        <v>0.1016207263758948</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.08516928950612913</v>
+        <v>0.08526226226888887</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.08230657226224915</v>
+        <v>0.0817610848009454</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06974344506256443</v>
+        <v>0.07004966483613788</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07946607559341827</v>
+        <v>0.07924983877872686</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06963009717186357</v>
+        <v>0.07017758631587601</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06827614947786079</v>
+        <v>0.06841090471669808</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1044815273425418</v>
+        <v>0.1057196540677781</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1583290144953065</v>
+        <v>0.159292593406925</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.133334009994381</v>
+        <v>0.1330125741433943</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1260432657443272</v>
+        <v>0.1251386148683983</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.08467435346986146</v>
+        <v>0.08388588556966836</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.116620644911674</v>
+        <v>0.1171012424794645</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1002133227293519</v>
+        <v>0.100077258144521</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.09465641835267602</v>
+        <v>0.09392865068167099</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12265</v>
+        <v>12979</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11738</v>
+        <v>11229</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12585</v>
+        <v>12477</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>18329</v>
+        <v>19703</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>12995</v>
+        <v>13227</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14445</v>
+        <v>14534</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>15089</v>
+        <v>15800</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>27152</v>
+        <v>27745</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>28981</v>
+        <v>30746</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>30163</v>
+        <v>29625</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>32939</v>
+        <v>32904</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>51658</v>
+        <v>53034</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30715</v>
+        <v>31727</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>29671</v>
+        <v>29427</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31342</v>
+        <v>30967</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42373</v>
+        <v>42609</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>30548</v>
+        <v>30691</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>33995</v>
+        <v>34190</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>34158</v>
+        <v>34459</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>49779</v>
+        <v>49561</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>54449</v>
+        <v>54419</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>57064</v>
+        <v>56561</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>59894</v>
+        <v>59988</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>83382</v>
+        <v>83942</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9306</v>
+        <v>9073</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>16737</v>
+        <v>16828</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11976</v>
+        <v>12092</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7463</v>
+        <v>7634</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>22206</v>
+        <v>22125</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>19615</v>
+        <v>19260</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>14884</v>
+        <v>14684</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>31042</v>
+        <v>30430</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>34609</v>
+        <v>34684</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>41942</v>
+        <v>41482</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>29942</v>
+        <v>31383</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>41988</v>
+        <v>43147</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>26775</v>
+        <v>26872</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>38988</v>
+        <v>39756</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>29966</v>
+        <v>30616</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>23827</v>
+        <v>23040</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>43320</v>
+        <v>43363</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>41413</v>
+        <v>42987</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>36718</v>
+        <v>34522</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>52768</v>
+        <v>52832</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>61732</v>
+        <v>61563</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>74017</v>
+        <v>73041</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>57418</v>
+        <v>58544</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>68931</v>
+        <v>70565</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>23883</v>
+        <v>24523</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>40169</v>
+        <v>39989</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>25633</v>
+        <v>24808</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>25025</v>
+        <v>24787</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10721</v>
+        <v>11181</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>34939</v>
+        <v>34883</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>14202</v>
+        <v>14500</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>13768</v>
+        <v>14040</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>39753</v>
+        <v>39498</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>82258</v>
+        <v>81731</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>45396</v>
+        <v>45185</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>43815</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>45517</v>
+        <v>45462</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>71073</v>
+        <v>70429</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>49728</v>
+        <v>50423</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>49205</v>
+        <v>48779</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>28006</v>
+        <v>28901</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>60251</v>
+        <v>59913</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>34335</v>
+        <v>34470</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>27761</v>
+        <v>28689</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>67610</v>
+        <v>67366</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>121879</v>
+        <v>121977</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>74716</v>
+        <v>75737</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>73166</v>
+        <v>71705</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>77889</v>
+        <v>76927</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>82987</v>
+        <v>85443</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>54057</v>
+        <v>51904</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>58845</v>
+        <v>58743</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>55454</v>
+        <v>53892</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>77981</v>
+        <v>78120</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>78004</v>
+        <v>78247</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>60925</v>
+        <v>61330</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>141113</v>
+        <v>141858</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>173464</v>
+        <v>172893</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>139656</v>
+        <v>140614</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>127589</v>
+        <v>126831</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>114173</v>
+        <v>115282</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>124091</v>
+        <v>125090</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>83729</v>
+        <v>84419</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>92494</v>
+        <v>91913</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>84595</v>
+        <v>85692</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>115856</v>
+        <v>116196</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>116260</v>
+        <v>118103</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>89241</v>
+        <v>89612</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>191305</v>
+        <v>190895</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>226331</v>
+        <v>225664</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>192488</v>
+        <v>191576</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>169670</v>
+        <v>169805</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>13618</v>
+        <v>14763</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>19161</v>
+        <v>20202</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>39499</v>
+        <v>39547</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>31510</v>
+        <v>31552</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>42413</v>
+        <v>42728</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>129181</v>
+        <v>130765</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>101977</v>
+        <v>103779</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>105644</v>
+        <v>105560</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>60719</v>
+        <v>61342</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>154815</v>
+        <v>156383</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>152005</v>
+        <v>150560</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>143686</v>
+        <v>144188</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>33912</v>
+        <v>33933</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>41413</v>
+        <v>39891</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>68610</v>
+        <v>67212</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>55865</v>
+        <v>54886</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>72398</v>
+        <v>71794</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>174401</v>
+        <v>175204</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>145175</v>
+        <v>142478</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>139083</v>
+        <v>139659</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>96457</v>
+        <v>96091</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>205817</v>
+        <v>206718</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>202888</v>
+        <v>203951</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>187512</v>
+        <v>185232</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5702</v>
+        <v>6547</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4964</v>
+        <v>4847</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5498</v>
+        <v>5509</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>4870</v>
+        <v>4810</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>102070</v>
+        <v>101217</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>149917</v>
+        <v>149685</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>118636</v>
+        <v>118119</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>107401</v>
+        <v>108700</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>111234</v>
+        <v>110965</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>156353</v>
+        <v>158332</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>127997</v>
+        <v>128064</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>115497</v>
+        <v>118414</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>19846</v>
+        <v>19592</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>18492</v>
+        <v>19074</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>18544</v>
+        <v>19742</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>23651</v>
+        <v>23137</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>142816</v>
+        <v>143521</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>198498</v>
+        <v>199907</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>166184</v>
+        <v>164903</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>145394</v>
+        <v>144621</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>156401</v>
+        <v>156995</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>210022</v>
+        <v>208908</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>179960</v>
+        <v>178048</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>157647</v>
+        <v>159788</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>171494</v>
+        <v>171531</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>209680</v>
+        <v>209493</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>180217</v>
+        <v>179213</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>179437</v>
+        <v>179176</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>284127</v>
+        <v>284637</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>476686</v>
+        <v>478512</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>391738</v>
+        <v>393323</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>392088</v>
+        <v>388813</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>475310</v>
+        <v>470261</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>701779</v>
+        <v>708098</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>589143</v>
+        <v>589786</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>582255</v>
+        <v>578396</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>228074</v>
+        <v>229076</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>271768</v>
+        <v>271028</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>235748</v>
+        <v>237602</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>234957</v>
+        <v>235421</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>352952</v>
+        <v>357134</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>561771</v>
+        <v>565190</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>470882</v>
+        <v>469747</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>457909</v>
+        <v>454622</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>562942</v>
+        <v>557700</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>812618</v>
+        <v>815967</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>693207</v>
+        <v>692266</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>669620</v>
+        <v>664472</v>
       </c>
     </row>
     <row r="32">
